--- a/data/trans_orig/LAWTONB_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/LAWTONB_R-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{61D0156B-EB63-452A-9D97-4BB93709687D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B493BA52-EF91-4D4C-9D4B-13CB9B2AC3C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{1B73936F-7CE5-421F-B1CA-225C3FA953D9}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8E999D36-439F-46F7-9864-40596AEF9D48}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -106,133 +106,136 @@
     <t>73,69%</t>
   </si>
   <si>
-    <t>69,47%</t>
-  </si>
-  <si>
-    <t>77,26%</t>
+    <t>69,49%</t>
+  </si>
+  <si>
+    <t>76,88%</t>
   </si>
   <si>
     <t>65,61%</t>
   </si>
   <si>
-    <t>61,59%</t>
-  </si>
-  <si>
-    <t>69,08%</t>
+    <t>61,97%</t>
+  </si>
+  <si>
+    <t>69,23%</t>
   </si>
   <si>
     <t>69,05%</t>
   </si>
   <si>
-    <t>66,54%</t>
-  </si>
-  <si>
-    <t>71,62%</t>
+    <t>66,21%</t>
+  </si>
+  <si>
+    <t>71,84%</t>
   </si>
   <si>
     <t>13,44%</t>
   </si>
   <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
   </si>
   <si>
     <t>15,79%</t>
   </si>
   <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>18,71%</t>
   </si>
   <si>
     <t>14,79%</t>
   </si>
   <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>16,96%</t>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
   </si>
   <si>
     <t>5,4%</t>
   </si>
   <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
     <t>3,71%</t>
   </si>
   <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
+    <t>7,32%</t>
   </si>
   <si>
     <t>4,53%</t>
   </si>
   <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
   </si>
   <si>
     <t>100%</t>
@@ -247,133 +250,130 @@
     <t>73,2%</t>
   </si>
   <si>
-    <t>69,15%</t>
-  </si>
-  <si>
-    <t>77,15%</t>
+    <t>68,93%</t>
   </si>
   <si>
     <t>61,42%</t>
   </si>
   <si>
-    <t>57,77%</t>
-  </si>
-  <si>
-    <t>65,18%</t>
+    <t>57,73%</t>
+  </si>
+  <si>
+    <t>65,23%</t>
   </si>
   <si>
     <t>66,48%</t>
   </si>
   <si>
-    <t>63,94%</t>
-  </si>
-  <si>
-    <t>69,22%</t>
+    <t>63,97%</t>
+  </si>
+  <si>
+    <t>69,31%</t>
   </si>
   <si>
     <t>6,0%</t>
   </si>
   <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
   </si>
   <si>
     <t>12,4%</t>
   </si>
   <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>15,36%</t>
   </si>
   <si>
     <t>9,65%</t>
   </si>
   <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
   </si>
   <si>
     <t>7,5%</t>
   </si>
   <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
+    <t>10,09%</t>
   </si>
   <si>
     <t>7,68%</t>
   </si>
   <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
   </si>
   <si>
     <t>7,6%</t>
   </si>
   <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
   </si>
   <si>
     <t>7,24%</t>
   </si>
   <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
   </si>
   <si>
     <t>9,09%</t>
   </si>
   <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
   </si>
   <si>
     <t>8,29%</t>
   </si>
   <si>
-    <t>6,67%</t>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
   </si>
   <si>
     <t>6,06%</t>
   </si>
   <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
   </si>
   <si>
     <t>9,41%</t>
   </si>
   <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
   </si>
   <si>
     <t>7,97%</t>
   </si>
   <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
   </si>
   <si>
     <t>ESCALA-DE-LAWTON-Y-BRODY ediciones 2007,2012,2014 en 2015 (Tasa respuesta: 19,52%)</t>
@@ -382,133 +382,133 @@
     <t>78,97%</t>
   </si>
   <si>
-    <t>75,81%</t>
-  </si>
-  <si>
-    <t>82,1%</t>
+    <t>76,0%</t>
+  </si>
+  <si>
+    <t>82,0%</t>
   </si>
   <si>
     <t>64,33%</t>
   </si>
   <si>
-    <t>60,73%</t>
-  </si>
-  <si>
-    <t>68,11%</t>
+    <t>60,52%</t>
+  </si>
+  <si>
+    <t>67,76%</t>
   </si>
   <si>
     <t>70,65%</t>
   </si>
   <si>
-    <t>68,37%</t>
-  </si>
-  <si>
-    <t>73,39%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
+    <t>67,94%</t>
+  </si>
+  <si>
+    <t>73,21%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
   </si>
   <si>
     <t>12,1%</t>
   </si>
   <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
   </si>
   <si>
     <t>9,45%</t>
   </si>
   <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
   </si>
   <si>
     <t>6,8%</t>
   </si>
   <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
   </si>
   <si>
     <t>10,06%</t>
   </si>
   <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
   </si>
   <si>
     <t>8,65%</t>
   </si>
   <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
   </si>
   <si>
     <t>5,41%</t>
   </si>
   <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
   </si>
   <si>
     <t>8,24%</t>
   </si>
   <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
   </si>
   <si>
     <t>7,02%</t>
   </si>
   <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
   </si>
   <si>
     <t>2,85%</t>
   </si>
   <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
   </si>
   <si>
     <t>5,26%</t>
   </si>
   <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
   </si>
   <si>
     <t>4,22%</t>
   </si>
   <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
   </si>
 </sst>
 </file>
@@ -920,7 +920,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79FC6F09-6AF6-4F32-B1B8-197C463924C6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74759F56-34D3-4F44-A61B-B8984D15F05A}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2626,10 +2626,10 @@
         <v>60</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M38" s="7">
         <v>52</v>
@@ -2638,13 +2638,13 @@
         <v>53418</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -2659,13 +2659,13 @@
         <v>502466</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H39" s="7">
         <v>661</v>
@@ -2674,13 +2674,13 @@
         <v>676842</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M39" s="7">
         <v>1184</v>
@@ -2689,13 +2689,13 @@
         <v>1179308</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -2934,10 +2934,10 @@
         <v>60</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M44" s="7">
         <v>52</v>
@@ -2946,13 +2946,13 @@
         <v>53418</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -2967,13 +2967,13 @@
         <v>502466</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H45" s="7">
         <v>661</v>
@@ -2982,13 +2982,13 @@
         <v>676842</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M45" s="7">
         <v>1184</v>
@@ -2997,18 +2997,18 @@
         <v>1179308</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -3030,7 +3030,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D78B195-F1F9-430D-95D7-B955B2AB0BFC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D42FC9C-A858-4C55-8680-0B4C7EA06C91}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3047,7 +3047,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4514,13 +4514,13 @@
         <v>409680</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>70</v>
+        <v>23</v>
       </c>
       <c r="H34" s="7">
         <v>431</v>
@@ -4619,10 +4619,10 @@
         <v>86</v>
       </c>
       <c r="F36" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G36" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>88</v>
       </c>
       <c r="H36" s="7">
         <v>53</v>
@@ -4631,13 +4631,13 @@
         <v>57044</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="K36" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="K36" s="7" t="s">
+      <c r="L36" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="M36" s="7">
         <v>92</v>
@@ -4646,13 +4646,13 @@
         <v>98996</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="P36" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="P36" s="7" t="s">
+      <c r="Q36" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4667,13 +4667,13 @@
         <v>40516</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F37" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="F37" s="7" t="s">
+      <c r="G37" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>97</v>
       </c>
       <c r="H37" s="7">
         <v>61</v>
@@ -4682,13 +4682,13 @@
         <v>67514</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="K37" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="K37" s="7" t="s">
+      <c r="L37" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="M37" s="7">
         <v>95</v>
@@ -4697,13 +4697,13 @@
         <v>108030</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="P37" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="P37" s="7" t="s">
+      <c r="Q37" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4769,13 +4769,13 @@
         <v>559637</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H39" s="7">
         <v>694</v>
@@ -4784,13 +4784,13 @@
         <v>742975</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M39" s="7">
         <v>1198</v>
@@ -4799,13 +4799,13 @@
         <v>1302612</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -4822,13 +4822,13 @@
         <v>409680</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>70</v>
+        <v>23</v>
       </c>
       <c r="H40" s="7">
         <v>431</v>
@@ -4927,10 +4927,10 @@
         <v>86</v>
       </c>
       <c r="F42" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G42" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="G42" s="7" t="s">
-        <v>88</v>
       </c>
       <c r="H42" s="7">
         <v>53</v>
@@ -4939,13 +4939,13 @@
         <v>57044</v>
       </c>
       <c r="J42" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="K42" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="K42" s="7" t="s">
+      <c r="L42" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="L42" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="M42" s="7">
         <v>92</v>
@@ -4954,13 +4954,13 @@
         <v>98996</v>
       </c>
       <c r="O42" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="P42" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="P42" s="7" t="s">
+      <c r="Q42" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="Q42" s="7" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -4975,13 +4975,13 @@
         <v>40516</v>
       </c>
       <c r="E43" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F43" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="F43" s="7" t="s">
+      <c r="G43" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="G43" s="7" t="s">
-        <v>97</v>
       </c>
       <c r="H43" s="7">
         <v>61</v>
@@ -4990,13 +4990,13 @@
         <v>67514</v>
       </c>
       <c r="J43" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="K43" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="K43" s="7" t="s">
+      <c r="L43" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="L43" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="M43" s="7">
         <v>95</v>
@@ -5005,13 +5005,13 @@
         <v>108030</v>
       </c>
       <c r="O43" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="P43" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="P43" s="7" t="s">
+      <c r="Q43" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="Q43" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -5077,13 +5077,13 @@
         <v>559637</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H45" s="7">
         <v>694</v>
@@ -5092,13 +5092,13 @@
         <v>742975</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M45" s="7">
         <v>1198</v>
@@ -5107,18 +5107,18 @@
         <v>1302612</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -5140,7 +5140,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B90A414A-D3E4-4C98-BEC1-AEADEB262E19}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F949D47-BEEC-4880-B664-2C3B4DAA4737}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6675,7 +6675,7 @@
         <v>35257</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="F35" s="7" t="s">
         <v>122</v>
@@ -6879,13 +6879,13 @@
         <v>591328</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H39" s="7">
         <v>655</v>
@@ -6894,13 +6894,13 @@
         <v>777931</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M39" s="7">
         <v>1282</v>
@@ -6909,13 +6909,13 @@
         <v>1369259</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -6983,7 +6983,7 @@
         <v>35257</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="F41" s="7" t="s">
         <v>122</v>
@@ -7187,13 +7187,13 @@
         <v>591328</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H45" s="7">
         <v>655</v>
@@ -7202,13 +7202,13 @@
         <v>777931</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M45" s="7">
         <v>1282</v>
@@ -7217,18 +7217,18 @@
         <v>1369259</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/LAWTONB_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/LAWTONB_R-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B493BA52-EF91-4D4C-9D4B-13CB9B2AC3C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7712C8D3-BC23-40AA-A521-8AE6804E2F10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8E999D36-439F-46F7-9864-40596AEF9D48}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{7135A8F3-6FBA-4BCF-B6C8-AC9182436907}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -106,409 +106,409 @@
     <t>73,69%</t>
   </si>
   <si>
-    <t>69,49%</t>
-  </si>
-  <si>
-    <t>76,88%</t>
+    <t>69,8%</t>
+  </si>
+  <si>
+    <t>77,46%</t>
   </si>
   <si>
     <t>65,61%</t>
   </si>
   <si>
-    <t>61,97%</t>
-  </si>
-  <si>
-    <t>69,23%</t>
+    <t>61,91%</t>
+  </si>
+  <si>
+    <t>69,2%</t>
   </si>
   <si>
     <t>69,05%</t>
   </si>
   <si>
-    <t>66,21%</t>
-  </si>
-  <si>
-    <t>71,84%</t>
+    <t>66,36%</t>
+  </si>
+  <si>
+    <t>71,67%</t>
   </si>
   <si>
     <t>13,44%</t>
   </si>
   <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
   </si>
   <si>
     <t>15,79%</t>
   </si>
   <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>18,71%</t>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>18,78%</t>
   </si>
   <si>
     <t>14,79%</t>
   </si>
   <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>16,88%</t>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
   </si>
   <si>
     <t>5,4%</t>
   </si>
   <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
   </si>
   <si>
     <t>9,48%</t>
   </si>
   <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
   </si>
   <si>
     <t>7,74%</t>
   </si>
   <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>ESCALA-DE-LAWTON-Y-BRODY ediciones 2007,2012,2014 en 2012 (Tasa respuesta: 18,41%)</t>
+  </si>
+  <si>
+    <t>73,2%</t>
+  </si>
+  <si>
+    <t>68,88%</t>
+  </si>
+  <si>
+    <t>77,27%</t>
+  </si>
+  <si>
+    <t>61,42%</t>
+  </si>
+  <si>
+    <t>58,0%</t>
+  </si>
+  <si>
+    <t>65,25%</t>
+  </si>
+  <si>
+    <t>66,48%</t>
+  </si>
+  <si>
+    <t>63,78%</t>
+  </si>
+  <si>
+    <t>69,14%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>12,4%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>ESCALA-DE-LAWTON-Y-BRODY ediciones 2007,2012,2014 en 2016 (Tasa respuesta: 19,52%)</t>
+  </si>
+  <si>
+    <t>78,97%</t>
+  </si>
+  <si>
+    <t>75,36%</t>
+  </si>
+  <si>
+    <t>81,91%</t>
+  </si>
+  <si>
+    <t>64,33%</t>
+  </si>
+  <si>
+    <t>60,19%</t>
+  </si>
+  <si>
+    <t>68,12%</t>
+  </si>
+  <si>
+    <t>70,65%</t>
+  </si>
+  <si>
+    <t>67,97%</t>
+  </si>
+  <si>
+    <t>72,95%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
     <t>6,23%</t>
   </si>
   <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>ESCALA-DE-LAWTON-Y-BRODY ediciones 2007,2012,2014 en 2012 (Tasa respuesta: 18,41%)</t>
-  </si>
-  <si>
-    <t>73,2%</t>
-  </si>
-  <si>
-    <t>68,93%</t>
-  </si>
-  <si>
-    <t>61,42%</t>
-  </si>
-  <si>
-    <t>57,73%</t>
-  </si>
-  <si>
-    <t>65,23%</t>
-  </si>
-  <si>
-    <t>66,48%</t>
-  </si>
-  <si>
-    <t>63,97%</t>
-  </si>
-  <si>
-    <t>69,31%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>12,4%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>15,36%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>ESCALA-DE-LAWTON-Y-BRODY ediciones 2007,2012,2014 en 2015 (Tasa respuesta: 19,52%)</t>
-  </si>
-  <si>
-    <t>78,97%</t>
-  </si>
-  <si>
-    <t>76,0%</t>
-  </si>
-  <si>
-    <t>82,0%</t>
-  </si>
-  <si>
-    <t>64,33%</t>
-  </si>
-  <si>
-    <t>60,52%</t>
-  </si>
-  <si>
-    <t>67,76%</t>
-  </si>
-  <si>
-    <t>70,65%</t>
-  </si>
-  <si>
-    <t>67,94%</t>
-  </si>
-  <si>
-    <t>73,21%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
+    <t>10,54%</t>
   </si>
   <si>
     <t>7,02%</t>
   </si>
   <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
   </si>
   <si>
     <t>2,85%</t>
   </si>
   <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
   </si>
   <si>
     <t>5,26%</t>
   </si>
   <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
   </si>
   <si>
     <t>4,22%</t>
   </si>
   <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
+    <t>3,11%</t>
   </si>
 </sst>
 </file>
@@ -920,7 +920,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74759F56-34D3-4F44-A61B-B8984D15F05A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52998D0C-BA8C-4046-80A9-FE5D536534DD}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3030,7 +3030,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D42FC9C-A858-4C55-8680-0B4C7EA06C91}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{619DE8F8-A2B1-43D8-BE5B-17FC783BCC96}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4520,7 +4520,7 @@
         <v>70</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>23</v>
+        <v>71</v>
       </c>
       <c r="H34" s="7">
         <v>431</v>
@@ -4529,13 +4529,13 @@
         <v>456356</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M34" s="7">
         <v>802</v>
@@ -4544,13 +4544,13 @@
         <v>866037</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4565,13 +4565,13 @@
         <v>33556</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H35" s="7">
         <v>85</v>
@@ -4580,13 +4580,13 @@
         <v>92165</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M35" s="7">
         <v>116</v>
@@ -4595,13 +4595,13 @@
         <v>125721</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -4616,13 +4616,13 @@
         <v>41952</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>39</v>
+        <v>88</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H36" s="7">
         <v>53</v>
@@ -4631,13 +4631,13 @@
         <v>57044</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="M36" s="7">
         <v>92</v>
@@ -4646,13 +4646,13 @@
         <v>98996</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4667,13 +4667,13 @@
         <v>40516</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="H37" s="7">
         <v>61</v>
@@ -4682,13 +4682,13 @@
         <v>67514</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="M37" s="7">
         <v>95</v>
@@ -4697,13 +4697,13 @@
         <v>108030</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4718,13 +4718,13 @@
         <v>33933</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="H38" s="7">
         <v>64</v>
@@ -4733,13 +4733,13 @@
         <v>69896</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="M38" s="7">
         <v>93</v>
@@ -4748,13 +4748,13 @@
         <v>103829</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4828,7 +4828,7 @@
         <v>70</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>23</v>
+        <v>71</v>
       </c>
       <c r="H40" s="7">
         <v>431</v>
@@ -4837,13 +4837,13 @@
         <v>456356</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M40" s="7">
         <v>802</v>
@@ -4852,13 +4852,13 @@
         <v>866037</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -4873,13 +4873,13 @@
         <v>33556</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H41" s="7">
         <v>85</v>
@@ -4888,13 +4888,13 @@
         <v>92165</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M41" s="7">
         <v>116</v>
@@ -4903,13 +4903,13 @@
         <v>125721</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -4924,13 +4924,13 @@
         <v>41952</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>39</v>
+        <v>88</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H42" s="7">
         <v>53</v>
@@ -4939,13 +4939,13 @@
         <v>57044</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="M42" s="7">
         <v>92</v>
@@ -4954,13 +4954,13 @@
         <v>98996</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -4975,13 +4975,13 @@
         <v>40516</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="H43" s="7">
         <v>61</v>
@@ -4990,13 +4990,13 @@
         <v>67514</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="M43" s="7">
         <v>95</v>
@@ -5005,13 +5005,13 @@
         <v>108030</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -5026,13 +5026,13 @@
         <v>33933</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="H44" s="7">
         <v>64</v>
@@ -5041,13 +5041,13 @@
         <v>69896</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="M44" s="7">
         <v>93</v>
@@ -5056,13 +5056,13 @@
         <v>103829</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -5140,7 +5140,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F949D47-BEEC-4880-B664-2C3B4DAA4737}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DB4B9FF-7B97-44F9-8F22-883A42DFB4C5}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5157,7 +5157,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6624,13 +6624,13 @@
         <v>466985</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="H34" s="7">
         <v>432</v>
@@ -6639,13 +6639,13 @@
         <v>500426</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="M34" s="7">
         <v>920</v>
@@ -6654,13 +6654,13 @@
         <v>967411</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6675,13 +6675,13 @@
         <v>35257</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>65</v>
+        <v>124</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="H35" s="7">
         <v>78</v>
@@ -6690,13 +6690,13 @@
         <v>94158</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="M35" s="7">
         <v>118</v>
@@ -6705,13 +6705,13 @@
         <v>129416</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6726,13 +6726,13 @@
         <v>40208</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="H36" s="7">
         <v>64</v>
@@ -6741,13 +6741,13 @@
         <v>78291</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="M36" s="7">
         <v>108</v>
@@ -6756,13 +6756,13 @@
         <v>118499</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6777,13 +6777,13 @@
         <v>32012</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>140</v>
+        <v>61</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H37" s="7">
         <v>50</v>
@@ -6792,13 +6792,13 @@
         <v>64126</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M37" s="7">
         <v>86</v>
@@ -6807,13 +6807,13 @@
         <v>96138</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6828,13 +6828,13 @@
         <v>16866</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H38" s="7">
         <v>31</v>
@@ -6843,13 +6843,13 @@
         <v>40929</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="M38" s="7">
         <v>50</v>
@@ -6858,13 +6858,13 @@
         <v>57796</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>156</v>
+        <v>53</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6932,13 +6932,13 @@
         <v>466985</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="H40" s="7">
         <v>432</v>
@@ -6947,13 +6947,13 @@
         <v>500426</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="M40" s="7">
         <v>920</v>
@@ -6962,13 +6962,13 @@
         <v>967411</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -6983,13 +6983,13 @@
         <v>35257</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>65</v>
+        <v>124</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="H41" s="7">
         <v>78</v>
@@ -6998,13 +6998,13 @@
         <v>94158</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="M41" s="7">
         <v>118</v>
@@ -7013,13 +7013,13 @@
         <v>129416</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -7034,13 +7034,13 @@
         <v>40208</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="H42" s="7">
         <v>64</v>
@@ -7049,13 +7049,13 @@
         <v>78291</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="M42" s="7">
         <v>108</v>
@@ -7064,13 +7064,13 @@
         <v>118499</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -7085,13 +7085,13 @@
         <v>32012</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>140</v>
+        <v>61</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H43" s="7">
         <v>50</v>
@@ -7100,13 +7100,13 @@
         <v>64126</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M43" s="7">
         <v>86</v>
@@ -7115,13 +7115,13 @@
         <v>96138</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -7136,13 +7136,13 @@
         <v>16866</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H44" s="7">
         <v>31</v>
@@ -7151,13 +7151,13 @@
         <v>40929</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="M44" s="7">
         <v>50</v>
@@ -7166,13 +7166,13 @@
         <v>57796</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>156</v>
+        <v>53</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/LAWTONB_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/LAWTONB_R-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7712C8D3-BC23-40AA-A521-8AE6804E2F10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D0ED0C96-17A9-4478-A951-D12710EC2E57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{7135A8F3-6FBA-4BCF-B6C8-AC9182436907}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4E0B9B72-275A-4382-A2F1-4151D2B5D2C8}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -40,7 +40,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1341" uniqueCount="157">
   <si>
-    <t>ESCALA-DE-LAWTON-Y-BRODY ediciones 2007,2012,2014 en 2007 (Tasa respuesta: 18,18%)</t>
+    <t>ESCALA-DE-LAWTON-Y-BRODY ediciones 2007,2012,2015 en 2007 (Tasa respuesta: 18,18%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -106,136 +106,133 @@
     <t>73,69%</t>
   </si>
   <si>
-    <t>69,8%</t>
-  </si>
-  <si>
-    <t>77,46%</t>
+    <t>69,47%</t>
+  </si>
+  <si>
+    <t>77,26%</t>
   </si>
   <si>
     <t>65,61%</t>
   </si>
   <si>
-    <t>61,91%</t>
-  </si>
-  <si>
-    <t>69,2%</t>
+    <t>61,59%</t>
+  </si>
+  <si>
+    <t>69,08%</t>
   </si>
   <si>
     <t>69,05%</t>
   </si>
   <si>
-    <t>66,36%</t>
-  </si>
-  <si>
-    <t>71,67%</t>
+    <t>66,54%</t>
+  </si>
+  <si>
+    <t>71,62%</t>
   </si>
   <si>
     <t>13,44%</t>
   </si>
   <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
   </si>
   <si>
     <t>15,79%</t>
   </si>
   <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>18,78%</t>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>18,65%</t>
   </si>
   <si>
     <t>14,79%</t>
   </si>
   <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>16,96%</t>
   </si>
   <si>
     <t>5,4%</t>
   </si>
   <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
   </si>
   <si>
     <t>9,48%</t>
   </si>
   <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
   </si>
   <si>
     <t>7,74%</t>
   </si>
   <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
   </si>
   <si>
     <t>4,04%</t>
   </si>
   <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
   </si>
   <si>
     <t>3,77%</t>
   </si>
   <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
   </si>
   <si>
     <t>3,88%</t>
   </si>
   <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
   </si>
   <si>
     <t>3,43%</t>
   </si>
   <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
   </si>
   <si>
     <t>5,34%</t>
   </si>
   <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
+    <t>7,42%</t>
   </si>
   <si>
     <t>4,53%</t>
   </si>
   <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
   </si>
   <si>
     <t>100%</t>
@@ -244,271 +241,274 @@
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>ESCALA-DE-LAWTON-Y-BRODY ediciones 2007,2012,2014 en 2012 (Tasa respuesta: 18,41%)</t>
+    <t>ESCALA-DE-LAWTON-Y-BRODY ediciones 2007,2012,2015 en 2012 (Tasa respuesta: 18,41%)</t>
   </si>
   <si>
     <t>73,2%</t>
   </si>
   <si>
-    <t>68,88%</t>
-  </si>
-  <si>
-    <t>77,27%</t>
+    <t>69,15%</t>
+  </si>
+  <si>
+    <t>77,15%</t>
   </si>
   <si>
     <t>61,42%</t>
   </si>
   <si>
-    <t>58,0%</t>
-  </si>
-  <si>
-    <t>65,25%</t>
+    <t>57,77%</t>
+  </si>
+  <si>
+    <t>65,18%</t>
   </si>
   <si>
     <t>66,48%</t>
   </si>
   <si>
-    <t>63,78%</t>
-  </si>
-  <si>
-    <t>69,14%</t>
+    <t>63,94%</t>
+  </si>
+  <si>
+    <t>69,22%</t>
   </si>
   <si>
     <t>6,0%</t>
   </si>
   <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
   </si>
   <si>
     <t>12,4%</t>
   </si>
   <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>15,0%</t>
   </si>
   <si>
     <t>9,65%</t>
   </si>
   <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
   </si>
   <si>
     <t>7,5%</t>
   </si>
   <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
   </si>
   <si>
     <t>7,68%</t>
   </si>
   <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
   </si>
   <si>
     <t>7,6%</t>
   </si>
   <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
   </si>
   <si>
     <t>7,24%</t>
   </si>
   <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
   </si>
   <si>
     <t>9,09%</t>
   </si>
   <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
   </si>
   <si>
     <t>8,29%</t>
   </si>
   <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
+    <t>6,67%</t>
   </si>
   <si>
     <t>6,06%</t>
   </si>
   <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
   </si>
   <si>
     <t>9,41%</t>
   </si>
   <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
   </si>
   <si>
     <t>7,97%</t>
   </si>
   <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>ESCALA-DE-LAWTON-Y-BRODY ediciones 2007,2012,2014 en 2016 (Tasa respuesta: 19,52%)</t>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>ESCALA-DE-LAWTON-Y-BRODY ediciones 2007,2012,2015 en 2016 (Tasa respuesta: 19,52%)</t>
   </si>
   <si>
     <t>78,97%</t>
   </si>
   <si>
-    <t>75,36%</t>
-  </si>
-  <si>
-    <t>81,91%</t>
+    <t>75,81%</t>
+  </si>
+  <si>
+    <t>82,1%</t>
   </si>
   <si>
     <t>64,33%</t>
   </si>
   <si>
-    <t>60,19%</t>
-  </si>
-  <si>
-    <t>68,12%</t>
+    <t>60,73%</t>
+  </si>
+  <si>
+    <t>68,11%</t>
   </si>
   <si>
     <t>70,65%</t>
   </si>
   <si>
-    <t>67,97%</t>
-  </si>
-  <si>
-    <t>72,95%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
+    <t>68,37%</t>
+  </si>
+  <si>
+    <t>73,39%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
   </si>
   <si>
     <t>12,1%</t>
   </si>
   <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
   </si>
   <si>
     <t>9,45%</t>
   </si>
   <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
   </si>
   <si>
     <t>6,8%</t>
   </si>
   <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
   </si>
   <si>
     <t>10,06%</t>
   </si>
   <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
   </si>
   <si>
     <t>8,65%</t>
   </si>
   <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
   </si>
   <si>
     <t>5,41%</t>
   </si>
   <si>
-    <t>7,18%</t>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
   </si>
   <si>
     <t>8,24%</t>
   </si>
   <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
   </si>
   <si>
     <t>7,02%</t>
   </si>
   <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
   </si>
   <si>
     <t>2,85%</t>
   </si>
   <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
   </si>
   <si>
     <t>5,26%</t>
   </si>
   <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
   </si>
   <si>
     <t>4,22%</t>
   </si>
   <si>
-    <t>3,11%</t>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
   </si>
 </sst>
 </file>
@@ -920,7 +920,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52998D0C-BA8C-4046-80A9-FE5D536534DD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D3E88B5-AA65-4B9C-AEB6-B317464AB9F4}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2626,10 +2626,10 @@
         <v>60</v>
       </c>
       <c r="K38" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L38" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="M38" s="7">
         <v>52</v>
@@ -2638,13 +2638,13 @@
         <v>53418</v>
       </c>
       <c r="O38" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="P38" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="P38" s="7" t="s">
+      <c r="Q38" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -2659,13 +2659,13 @@
         <v>502466</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H39" s="7">
         <v>661</v>
@@ -2674,13 +2674,13 @@
         <v>676842</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M39" s="7">
         <v>1184</v>
@@ -2689,13 +2689,13 @@
         <v>1179308</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -2934,10 +2934,10 @@
         <v>60</v>
       </c>
       <c r="K44" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L44" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="L44" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="M44" s="7">
         <v>52</v>
@@ -2946,13 +2946,13 @@
         <v>53418</v>
       </c>
       <c r="O44" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="P44" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="P44" s="7" t="s">
+      <c r="Q44" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="Q44" s="7" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -2967,13 +2967,13 @@
         <v>502466</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H45" s="7">
         <v>661</v>
@@ -2982,13 +2982,13 @@
         <v>676842</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M45" s="7">
         <v>1184</v>
@@ -2997,18 +2997,18 @@
         <v>1179308</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -3030,7 +3030,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{619DE8F8-A2B1-43D8-BE5B-17FC783BCC96}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A064970E-EEE6-4477-9C8A-3C7EB82CB4EE}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3047,7 +3047,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4514,13 +4514,13 @@
         <v>409680</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F34" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="F34" s="7" t="s">
+      <c r="G34" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="H34" s="7">
         <v>431</v>
@@ -4529,13 +4529,13 @@
         <v>456356</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K34" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="K34" s="7" t="s">
+      <c r="L34" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="M34" s="7">
         <v>802</v>
@@ -4544,13 +4544,13 @@
         <v>866037</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P34" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="P34" s="7" t="s">
+      <c r="Q34" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4565,13 +4565,13 @@
         <v>33556</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F35" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F35" s="7" t="s">
+      <c r="G35" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="H35" s="7">
         <v>85</v>
@@ -4580,13 +4580,13 @@
         <v>92165</v>
       </c>
       <c r="J35" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K35" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="K35" s="7" t="s">
+      <c r="L35" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="M35" s="7">
         <v>116</v>
@@ -4595,13 +4595,13 @@
         <v>125721</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P35" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="P35" s="7" t="s">
+      <c r="Q35" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -4616,13 +4616,13 @@
         <v>41952</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F36" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="G36" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>89</v>
       </c>
       <c r="H36" s="7">
         <v>53</v>
@@ -4631,13 +4631,13 @@
         <v>57044</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K36" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="K36" s="7" t="s">
+      <c r="L36" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="M36" s="7">
         <v>92</v>
@@ -4646,13 +4646,13 @@
         <v>98996</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="P36" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="P36" s="7" t="s">
+      <c r="Q36" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4667,13 +4667,13 @@
         <v>40516</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F37" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="F37" s="7" t="s">
+      <c r="G37" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="H37" s="7">
         <v>61</v>
@@ -4682,13 +4682,13 @@
         <v>67514</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="K37" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="K37" s="7" t="s">
+      <c r="L37" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="M37" s="7">
         <v>95</v>
@@ -4697,13 +4697,13 @@
         <v>108030</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="P37" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="P37" s="7" t="s">
-        <v>103</v>
-      </c>
       <c r="Q37" s="7" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4718,13 +4718,13 @@
         <v>33933</v>
       </c>
       <c r="E38" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="G38" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="H38" s="7">
         <v>64</v>
@@ -4733,13 +4733,13 @@
         <v>69896</v>
       </c>
       <c r="J38" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="L38" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="M38" s="7">
         <v>93</v>
@@ -4748,13 +4748,13 @@
         <v>103829</v>
       </c>
       <c r="O38" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="P38" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q38" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4769,13 +4769,13 @@
         <v>559637</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H39" s="7">
         <v>694</v>
@@ -4784,13 +4784,13 @@
         <v>742975</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M39" s="7">
         <v>1198</v>
@@ -4799,13 +4799,13 @@
         <v>1302612</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -4822,13 +4822,13 @@
         <v>409680</v>
       </c>
       <c r="E40" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F40" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="F40" s="7" t="s">
+      <c r="G40" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="G40" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="H40" s="7">
         <v>431</v>
@@ -4837,13 +4837,13 @@
         <v>456356</v>
       </c>
       <c r="J40" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K40" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="K40" s="7" t="s">
+      <c r="L40" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="L40" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="M40" s="7">
         <v>802</v>
@@ -4852,13 +4852,13 @@
         <v>866037</v>
       </c>
       <c r="O40" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P40" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="P40" s="7" t="s">
+      <c r="Q40" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="Q40" s="7" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -4873,13 +4873,13 @@
         <v>33556</v>
       </c>
       <c r="E41" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F41" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F41" s="7" t="s">
+      <c r="G41" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="G41" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="H41" s="7">
         <v>85</v>
@@ -4888,13 +4888,13 @@
         <v>92165</v>
       </c>
       <c r="J41" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K41" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="K41" s="7" t="s">
+      <c r="L41" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="L41" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="M41" s="7">
         <v>116</v>
@@ -4903,13 +4903,13 @@
         <v>125721</v>
       </c>
       <c r="O41" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P41" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="P41" s="7" t="s">
+      <c r="Q41" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="Q41" s="7" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -4924,13 +4924,13 @@
         <v>41952</v>
       </c>
       <c r="E42" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F42" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="F42" s="7" t="s">
+      <c r="G42" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="G42" s="7" t="s">
-        <v>89</v>
       </c>
       <c r="H42" s="7">
         <v>53</v>
@@ -4939,13 +4939,13 @@
         <v>57044</v>
       </c>
       <c r="J42" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K42" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="K42" s="7" t="s">
+      <c r="L42" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="L42" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="M42" s="7">
         <v>92</v>
@@ -4954,13 +4954,13 @@
         <v>98996</v>
       </c>
       <c r="O42" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="P42" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="P42" s="7" t="s">
+      <c r="Q42" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="Q42" s="7" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -4975,13 +4975,13 @@
         <v>40516</v>
       </c>
       <c r="E43" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F43" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="F43" s="7" t="s">
+      <c r="G43" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="G43" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="H43" s="7">
         <v>61</v>
@@ -4990,13 +4990,13 @@
         <v>67514</v>
       </c>
       <c r="J43" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="K43" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="K43" s="7" t="s">
+      <c r="L43" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="L43" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="M43" s="7">
         <v>95</v>
@@ -5005,13 +5005,13 @@
         <v>108030</v>
       </c>
       <c r="O43" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="P43" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="P43" s="7" t="s">
-        <v>103</v>
-      </c>
       <c r="Q43" s="7" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -5026,13 +5026,13 @@
         <v>33933</v>
       </c>
       <c r="E44" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="G44" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="F44" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="G44" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="H44" s="7">
         <v>64</v>
@@ -5041,13 +5041,13 @@
         <v>69896</v>
       </c>
       <c r="J44" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="K44" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="L44" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="K44" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="L44" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="M44" s="7">
         <v>93</v>
@@ -5056,13 +5056,13 @@
         <v>103829</v>
       </c>
       <c r="O44" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="P44" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q44" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="P44" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q44" s="7" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -5077,13 +5077,13 @@
         <v>559637</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H45" s="7">
         <v>694</v>
@@ -5092,13 +5092,13 @@
         <v>742975</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M45" s="7">
         <v>1198</v>
@@ -5107,18 +5107,18 @@
         <v>1302612</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -5140,7 +5140,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DB4B9FF-7B97-44F9-8F22-883A42DFB4C5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2585A01-FE7F-4AD5-A712-6E3DB4581E60}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5157,7 +5157,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6624,13 +6624,13 @@
         <v>466985</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G34" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="H34" s="7">
         <v>432</v>
@@ -6639,13 +6639,13 @@
         <v>500426</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="L34" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="M34" s="7">
         <v>920</v>
@@ -6654,13 +6654,13 @@
         <v>967411</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q34" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6675,13 +6675,13 @@
         <v>35257</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>124</v>
+        <v>90</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="H35" s="7">
         <v>78</v>
@@ -6690,13 +6690,13 @@
         <v>94158</v>
       </c>
       <c r="J35" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="L35" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="K35" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="M35" s="7">
         <v>118</v>
@@ -6705,13 +6705,13 @@
         <v>129416</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q35" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="P35" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6726,13 +6726,13 @@
         <v>40208</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="G36" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>134</v>
       </c>
       <c r="H36" s="7">
         <v>64</v>
@@ -6741,13 +6741,13 @@
         <v>78291</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="L36" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="M36" s="7">
         <v>108</v>
@@ -6756,13 +6756,13 @@
         <v>118499</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="P36" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q36" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6777,13 +6777,13 @@
         <v>32012</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="G37" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>142</v>
       </c>
       <c r="H37" s="7">
         <v>50</v>
@@ -6792,13 +6792,13 @@
         <v>64126</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="K37" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="K37" s="7" t="s">
+      <c r="L37" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="M37" s="7">
         <v>86</v>
@@ -6807,13 +6807,13 @@
         <v>96138</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="P37" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="P37" s="7" t="s">
+      <c r="Q37" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6828,13 +6828,13 @@
         <v>16866</v>
       </c>
       <c r="E38" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="F38" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="F38" s="7" t="s">
+      <c r="G38" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="H38" s="7">
         <v>31</v>
@@ -6843,13 +6843,13 @@
         <v>40929</v>
       </c>
       <c r="J38" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="K38" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="K38" s="7" t="s">
+      <c r="L38" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="M38" s="7">
         <v>50</v>
@@ -6858,13 +6858,13 @@
         <v>57796</v>
       </c>
       <c r="O38" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="P38" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="P38" s="7" t="s">
+      <c r="Q38" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6879,13 +6879,13 @@
         <v>591328</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H39" s="7">
         <v>655</v>
@@ -6894,13 +6894,13 @@
         <v>777931</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M39" s="7">
         <v>1282</v>
@@ -6909,13 +6909,13 @@
         <v>1369259</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -6932,13 +6932,13 @@
         <v>466985</v>
       </c>
       <c r="E40" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G40" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="F40" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="G40" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="H40" s="7">
         <v>432</v>
@@ -6947,13 +6947,13 @@
         <v>500426</v>
       </c>
       <c r="J40" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="K40" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="L40" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="K40" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="L40" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="M40" s="7">
         <v>920</v>
@@ -6962,13 +6962,13 @@
         <v>967411</v>
       </c>
       <c r="O40" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="P40" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q40" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="P40" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q40" s="7" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -6983,13 +6983,13 @@
         <v>35257</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>124</v>
+        <v>90</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="H41" s="7">
         <v>78</v>
@@ -6998,13 +6998,13 @@
         <v>94158</v>
       </c>
       <c r="J41" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="K41" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="L41" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="K41" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="L41" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="M41" s="7">
         <v>118</v>
@@ -7013,13 +7013,13 @@
         <v>129416</v>
       </c>
       <c r="O41" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="P41" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q41" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="P41" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q41" s="7" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -7034,13 +7034,13 @@
         <v>40208</v>
       </c>
       <c r="E42" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="G42" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="F42" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="G42" s="7" t="s">
-        <v>134</v>
       </c>
       <c r="H42" s="7">
         <v>64</v>
@@ -7049,13 +7049,13 @@
         <v>78291</v>
       </c>
       <c r="J42" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="K42" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="L42" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="K42" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="L42" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="M42" s="7">
         <v>108</v>
@@ -7064,13 +7064,13 @@
         <v>118499</v>
       </c>
       <c r="O42" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="P42" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q42" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="P42" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q42" s="7" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -7085,13 +7085,13 @@
         <v>32012</v>
       </c>
       <c r="E43" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="G43" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="F43" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G43" s="7" t="s">
-        <v>142</v>
       </c>
       <c r="H43" s="7">
         <v>50</v>
@@ -7100,13 +7100,13 @@
         <v>64126</v>
       </c>
       <c r="J43" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="K43" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="K43" s="7" t="s">
+      <c r="L43" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="L43" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="M43" s="7">
         <v>86</v>
@@ -7115,13 +7115,13 @@
         <v>96138</v>
       </c>
       <c r="O43" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="P43" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="P43" s="7" t="s">
+      <c r="Q43" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="Q43" s="7" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -7136,13 +7136,13 @@
         <v>16866</v>
       </c>
       <c r="E44" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="F44" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="F44" s="7" t="s">
+      <c r="G44" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="G44" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="H44" s="7">
         <v>31</v>
@@ -7151,13 +7151,13 @@
         <v>40929</v>
       </c>
       <c r="J44" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="K44" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="K44" s="7" t="s">
+      <c r="L44" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="L44" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="M44" s="7">
         <v>50</v>
@@ -7166,13 +7166,13 @@
         <v>57796</v>
       </c>
       <c r="O44" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="P44" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="P44" s="7" t="s">
+      <c r="Q44" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="Q44" s="7" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -7187,13 +7187,13 @@
         <v>591328</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H45" s="7">
         <v>655</v>
@@ -7202,13 +7202,13 @@
         <v>777931</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M45" s="7">
         <v>1282</v>
@@ -7217,18 +7217,18 @@
         <v>1369259</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
